--- a/data/pca/factorExposure/factorExposure_2018-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01804811600750953</v>
+        <v>-0.0206617936186169</v>
       </c>
       <c r="C2">
-        <v>0.01847022716031056</v>
+        <v>0.01927696336515228</v>
       </c>
       <c r="D2">
-        <v>-0.008977482231630654</v>
+        <v>0.0208054488325654</v>
       </c>
       <c r="E2">
-        <v>-0.01681487383854384</v>
+        <v>0.0142520616098674</v>
       </c>
       <c r="F2">
-        <v>-0.1095985304454889</v>
+        <v>0.007183117272345707</v>
       </c>
       <c r="G2">
-        <v>-0.06192723533255898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04565129647274364</v>
+      </c>
+      <c r="H2">
+        <v>0.05292207973896373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09559102521001775</v>
+        <v>-0.07910397388304527</v>
       </c>
       <c r="C3">
-        <v>-0.01737344985785404</v>
+        <v>-0.01071610364876921</v>
       </c>
       <c r="D3">
-        <v>-0.07402357867490761</v>
+        <v>0.02784288027153722</v>
       </c>
       <c r="E3">
-        <v>-0.05979758366859751</v>
+        <v>0.005701718954929268</v>
       </c>
       <c r="F3">
-        <v>-0.3866621950517765</v>
+        <v>-0.0173800729933688</v>
       </c>
       <c r="G3">
-        <v>-0.1582919144785673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1565889459466997</v>
+      </c>
+      <c r="H3">
+        <v>0.1723028633234717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03811576116271861</v>
+        <v>-0.04369447562322105</v>
       </c>
       <c r="C4">
-        <v>0.008585516334168536</v>
+        <v>0.006622739049704274</v>
       </c>
       <c r="D4">
-        <v>0.01578437564642091</v>
+        <v>0.04723249953139504</v>
       </c>
       <c r="E4">
-        <v>0.04886563077348605</v>
+        <v>-0.02008854654674834</v>
       </c>
       <c r="F4">
-        <v>-0.0782193553105188</v>
+        <v>0.05500153272116966</v>
       </c>
       <c r="G4">
-        <v>-0.052181663170396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03192733890351641</v>
+      </c>
+      <c r="H4">
+        <v>0.05865793637455555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02130035701482653</v>
+        <v>-0.025063273727792</v>
       </c>
       <c r="C6">
-        <v>0.01118981664017173</v>
+        <v>0.004977254973376947</v>
       </c>
       <c r="D6">
-        <v>-0.008195438479296744</v>
+        <v>0.0529591028920915</v>
       </c>
       <c r="E6">
-        <v>0.01835838752630349</v>
+        <v>-0.005389015762621159</v>
       </c>
       <c r="F6">
-        <v>-0.02753806929653029</v>
+        <v>0.03321840185719402</v>
       </c>
       <c r="G6">
-        <v>0.001750798047231391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008196881256137196</v>
+      </c>
+      <c r="H6">
+        <v>0.06527261590281336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02102845313731316</v>
+        <v>-0.02091063640243568</v>
       </c>
       <c r="C7">
-        <v>0.0003665607801665481</v>
+        <v>0.003758934919921691</v>
       </c>
       <c r="D7">
-        <v>-0.01521370655608983</v>
+        <v>0.02688416082953722</v>
       </c>
       <c r="E7">
-        <v>0.02648498452176669</v>
+        <v>-0.04307512205814219</v>
       </c>
       <c r="F7">
-        <v>-0.05146837312446151</v>
+        <v>0.008443719253120254</v>
       </c>
       <c r="G7">
-        <v>-0.06408873049892859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01922907690615652</v>
+      </c>
+      <c r="H7">
+        <v>0.03995118815566638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01772185192515014</v>
+        <v>-0.006446785486907353</v>
       </c>
       <c r="C8">
-        <v>0.01163338682236466</v>
+        <v>-0.00148186737140856</v>
       </c>
       <c r="D8">
-        <v>-0.00634162102999849</v>
+        <v>0.01063090571018099</v>
       </c>
       <c r="E8">
-        <v>0.03748337977948401</v>
+        <v>-0.006615025415129092</v>
       </c>
       <c r="F8">
-        <v>-0.1046444383910446</v>
+        <v>0.02138005618925164</v>
       </c>
       <c r="G8">
-        <v>-0.05626624792860064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03991078381393481</v>
+      </c>
+      <c r="H8">
+        <v>0.04709728636983133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03188377168087439</v>
+        <v>-0.03513305192390995</v>
       </c>
       <c r="C9">
-        <v>0.01217365197930154</v>
+        <v>0.002123608689446212</v>
       </c>
       <c r="D9">
-        <v>0.005253028693447888</v>
+        <v>0.03583821874475905</v>
       </c>
       <c r="E9">
-        <v>0.0361765046668015</v>
+        <v>-0.009427909892863805</v>
       </c>
       <c r="F9">
-        <v>-0.09322019978612052</v>
+        <v>0.02971197685777571</v>
       </c>
       <c r="G9">
-        <v>-0.05851684715477742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04095072111744078</v>
+      </c>
+      <c r="H9">
+        <v>0.05821466752983502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03309029432813258</v>
+        <v>-0.1064680077406134</v>
       </c>
       <c r="C10">
-        <v>-0.07464529714910195</v>
+        <v>-0.02687745105040461</v>
       </c>
       <c r="D10">
-        <v>0.07874885186232257</v>
+        <v>-0.1547934093564779</v>
       </c>
       <c r="E10">
-        <v>-0.1105378584349988</v>
+        <v>0.002817556603786521</v>
       </c>
       <c r="F10">
-        <v>-0.04964797847470871</v>
+        <v>-0.04443752114139981</v>
       </c>
       <c r="G10">
-        <v>0.006635944242827542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02600577527060669</v>
+      </c>
+      <c r="H10">
+        <v>0.00980715913646487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0319633811933114</v>
+        <v>-0.0199909719440206</v>
       </c>
       <c r="C11">
-        <v>0.02175019827988618</v>
+        <v>-0.007302374471545212</v>
       </c>
       <c r="D11">
-        <v>-0.01665936733939871</v>
+        <v>0.03977670805816295</v>
       </c>
       <c r="E11">
-        <v>0.0271455809569463</v>
+        <v>0.001231901308255508</v>
       </c>
       <c r="F11">
-        <v>-0.04593570430707503</v>
+        <v>0.01215270149818669</v>
       </c>
       <c r="G11">
-        <v>-0.0229505776606001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0207734075235446</v>
+      </c>
+      <c r="H11">
+        <v>0.04738159148204979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04009944143650278</v>
+        <v>-0.02568692947307882</v>
       </c>
       <c r="C12">
-        <v>0.0240262384825827</v>
+        <v>-0.004580332092935677</v>
       </c>
       <c r="D12">
-        <v>-0.009959429210477834</v>
+        <v>0.04038711608579026</v>
       </c>
       <c r="E12">
-        <v>0.03686305921008674</v>
+        <v>-0.008222542172862491</v>
       </c>
       <c r="F12">
-        <v>-0.02958719484901493</v>
+        <v>0.01774533203858041</v>
       </c>
       <c r="G12">
-        <v>-0.006942521258251374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005704182315845958</v>
+      </c>
+      <c r="H12">
+        <v>0.02026682785507613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01304985674167158</v>
+        <v>-0.02579685723198383</v>
       </c>
       <c r="C13">
-        <v>0.02040100176549302</v>
+        <v>0.01480658983236803</v>
       </c>
       <c r="D13">
-        <v>0.003003181665649443</v>
+        <v>-0.0002660922765469418</v>
       </c>
       <c r="E13">
-        <v>-0.004130143304537749</v>
+        <v>0.01148884001053679</v>
       </c>
       <c r="F13">
-        <v>-0.07742758211612182</v>
+        <v>0.01630672463917808</v>
       </c>
       <c r="G13">
-        <v>-0.04357093302000928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04731458056356174</v>
+      </c>
+      <c r="H13">
+        <v>0.068366773781438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01486596868629331</v>
+        <v>-0.0174478062484823</v>
       </c>
       <c r="C14">
-        <v>0.000968629203965406</v>
+        <v>0.001195109970990406</v>
       </c>
       <c r="D14">
-        <v>0.004453230296343045</v>
+        <v>0.005167418702133347</v>
       </c>
       <c r="E14">
-        <v>0.03651750289542248</v>
+        <v>-0.01370729868628932</v>
       </c>
       <c r="F14">
-        <v>-0.05902295725796664</v>
+        <v>0.01661396699273259</v>
       </c>
       <c r="G14">
-        <v>-0.0673554419157598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03908162250702878</v>
+      </c>
+      <c r="H14">
+        <v>0.0129095294735691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02504967881171587</v>
+        <v>-0.02147168698603885</v>
       </c>
       <c r="C16">
-        <v>0.02468841950088759</v>
+        <v>-0.007820881168461857</v>
       </c>
       <c r="D16">
-        <v>-0.01305974061182694</v>
+        <v>0.0349212203353856</v>
       </c>
       <c r="E16">
-        <v>0.02201633144505111</v>
+        <v>-0.002124284531563326</v>
       </c>
       <c r="F16">
-        <v>-0.05245501378926481</v>
+        <v>0.01805893066360859</v>
       </c>
       <c r="G16">
-        <v>-0.02447790623853209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01849575600310314</v>
+      </c>
+      <c r="H16">
+        <v>0.03821937120180911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04668580162879215</v>
+        <v>-0.03383517329734418</v>
       </c>
       <c r="C19">
-        <v>0.01783820256434043</v>
+        <v>0.001372327904872452</v>
       </c>
       <c r="D19">
-        <v>-0.01284319190503596</v>
+        <v>0.02226694261370589</v>
       </c>
       <c r="E19">
-        <v>0.03176319910413702</v>
+        <v>-0.004711140405138847</v>
       </c>
       <c r="F19">
-        <v>-0.1080967192665814</v>
+        <v>0.02502266680270029</v>
       </c>
       <c r="G19">
-        <v>-0.03062628232123337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.04963774735406012</v>
+      </c>
+      <c r="H19">
+        <v>0.07542195586414017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001087612174405769</v>
+        <v>-0.01035301154421052</v>
       </c>
       <c r="C20">
-        <v>0.004976206927479111</v>
+        <v>0.006692548625415041</v>
       </c>
       <c r="D20">
-        <v>0.004896797104392013</v>
+        <v>0.008223409597612764</v>
       </c>
       <c r="E20">
-        <v>0.02948543276207529</v>
+        <v>-0.004020494589953716</v>
       </c>
       <c r="F20">
-        <v>-0.07247076513161532</v>
+        <v>0.01725614036485931</v>
       </c>
       <c r="G20">
-        <v>-0.07114540958328396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04444002612243515</v>
+      </c>
+      <c r="H20">
+        <v>0.02372086624907658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005304750668156564</v>
+        <v>-0.01512424301020875</v>
       </c>
       <c r="C21">
-        <v>-0.01571094818238823</v>
+        <v>0.008693815857917996</v>
       </c>
       <c r="D21">
-        <v>-0.02101415478179899</v>
+        <v>0.009640699696998281</v>
       </c>
       <c r="E21">
-        <v>0.02484376371754702</v>
+        <v>-0.01853109454579481</v>
       </c>
       <c r="F21">
-        <v>-0.05439673893133894</v>
+        <v>0.008877972361775056</v>
       </c>
       <c r="G21">
-        <v>-0.02470798528519007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04237912914748961</v>
+      </c>
+      <c r="H21">
+        <v>0.05079148113744746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02911089925168319</v>
+        <v>-0.01869490635235325</v>
       </c>
       <c r="C24">
-        <v>0.0236366695907142</v>
+        <v>-0.002195341660559278</v>
       </c>
       <c r="D24">
-        <v>0.0002476244927021649</v>
+        <v>0.03528456633920925</v>
       </c>
       <c r="E24">
-        <v>0.009894841167659259</v>
+        <v>-0.0003830540606269992</v>
       </c>
       <c r="F24">
-        <v>-0.04437666788804441</v>
+        <v>0.01297961310673802</v>
       </c>
       <c r="G24">
-        <v>-0.02195962007540829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01229956861538698</v>
+      </c>
+      <c r="H24">
+        <v>0.04630626316856428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02946394451158472</v>
+        <v>-0.02924098021158337</v>
       </c>
       <c r="C25">
-        <v>0.01545930538860794</v>
+        <v>-0.0001555094695449082</v>
       </c>
       <c r="D25">
-        <v>-0.01653354866045548</v>
+        <v>0.03538688029309764</v>
       </c>
       <c r="E25">
-        <v>0.02880947805198495</v>
+        <v>-0.004398249470219458</v>
       </c>
       <c r="F25">
-        <v>-0.05018775771251163</v>
+        <v>0.01989151063231136</v>
       </c>
       <c r="G25">
-        <v>-0.008856419000056548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01748830281348088</v>
+      </c>
+      <c r="H25">
+        <v>0.04605252145640638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02022374607125601</v>
+        <v>-0.01907405532713988</v>
       </c>
       <c r="C26">
-        <v>0.008494433739296899</v>
+        <v>0.01805193051402132</v>
       </c>
       <c r="D26">
-        <v>-0.02653988687412269</v>
+        <v>0.001769335393433278</v>
       </c>
       <c r="E26">
-        <v>0.001733946703332784</v>
+        <v>0.001453199263174533</v>
       </c>
       <c r="F26">
-        <v>-0.07103153513636504</v>
+        <v>0.001052475873641926</v>
       </c>
       <c r="G26">
-        <v>-0.0475338154378328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03064663720181364</v>
+      </c>
+      <c r="H26">
+        <v>0.02270556269361106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06092838732894904</v>
+        <v>-0.02312680803243899</v>
       </c>
       <c r="C27">
-        <v>0.02078231869016629</v>
+        <v>-0.008044235266498053</v>
       </c>
       <c r="D27">
-        <v>0.02509961223910154</v>
+        <v>0.01631104334312651</v>
       </c>
       <c r="E27">
-        <v>0.04158773891822157</v>
+        <v>-0.004065265604698489</v>
       </c>
       <c r="F27">
-        <v>-0.05985592124522659</v>
+        <v>0.01634979803596479</v>
       </c>
       <c r="G27">
-        <v>-0.04508483264107465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01657457750183203</v>
+      </c>
+      <c r="H27">
+        <v>0.003814186747210594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05219324432234691</v>
+        <v>-0.1556681190810192</v>
       </c>
       <c r="C28">
-        <v>-0.09108353265035896</v>
+        <v>-0.02615798084763671</v>
       </c>
       <c r="D28">
-        <v>0.1207627712453148</v>
+        <v>-0.2182576208306625</v>
       </c>
       <c r="E28">
-        <v>-0.1447055380304098</v>
+        <v>-0.0007519114350599923</v>
       </c>
       <c r="F28">
-        <v>-0.05084421583463363</v>
+        <v>-0.04582781770892093</v>
       </c>
       <c r="G28">
-        <v>-0.02009554558626812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01203495241371708</v>
+      </c>
+      <c r="H28">
+        <v>-0.01086897113094808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02056477736765663</v>
+        <v>-0.0211443587502525</v>
       </c>
       <c r="C29">
-        <v>-0.001638338965111186</v>
+        <v>-0.0004101206596070593</v>
       </c>
       <c r="D29">
-        <v>0.004515425316171687</v>
+        <v>0.00613623182609227</v>
       </c>
       <c r="E29">
-        <v>0.05056041318663885</v>
+        <v>-0.01435112691607425</v>
       </c>
       <c r="F29">
-        <v>-0.04944704562918306</v>
+        <v>0.01830010232376644</v>
       </c>
       <c r="G29">
-        <v>-0.05712114732272631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03707218972649118</v>
+      </c>
+      <c r="H29">
+        <v>0.005558404312348658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08738437653894784</v>
+        <v>-0.04999862483610042</v>
       </c>
       <c r="C30">
-        <v>0.05417003564869981</v>
+        <v>0.006901402478327146</v>
       </c>
       <c r="D30">
-        <v>-0.003628154874055641</v>
+        <v>0.07208374908145389</v>
       </c>
       <c r="E30">
-        <v>0.06898036187338473</v>
+        <v>0.03218682120019865</v>
       </c>
       <c r="F30">
-        <v>-0.09773567115144655</v>
+        <v>0.05184968958468086</v>
       </c>
       <c r="G30">
-        <v>-0.05719653195917653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04422010230386925</v>
+      </c>
+      <c r="H30">
+        <v>0.06917465464194295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05749681813239023</v>
+        <v>-0.0526658842262358</v>
       </c>
       <c r="C31">
-        <v>0.02960784717096369</v>
+        <v>-0.01225650762119152</v>
       </c>
       <c r="D31">
-        <v>-0.01036280847224325</v>
+        <v>0.02397278120417052</v>
       </c>
       <c r="E31">
-        <v>0.001962608104809108</v>
+        <v>0.004411591011640214</v>
       </c>
       <c r="F31">
-        <v>-0.0429231141697077</v>
+        <v>0.01095540956858362</v>
       </c>
       <c r="G31">
-        <v>-0.07193069612467098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01381815659605588</v>
+      </c>
+      <c r="H31">
+        <v>0.01003822981295433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01794356402021606</v>
+        <v>-0.01053240126040923</v>
       </c>
       <c r="C32">
-        <v>0.01285869234392289</v>
+        <v>-0.01272668213565625</v>
       </c>
       <c r="D32">
-        <v>-0.0208319825459479</v>
+        <v>0.007426792590114478</v>
       </c>
       <c r="E32">
-        <v>0.07394039170908508</v>
+        <v>-0.02970342744074187</v>
       </c>
       <c r="F32">
-        <v>-0.07906033114803887</v>
+        <v>0.04226172119906503</v>
       </c>
       <c r="G32">
-        <v>-0.05519995229193187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02568931671753769</v>
+      </c>
+      <c r="H32">
+        <v>0.0628720921394415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04506094901837285</v>
+        <v>-0.03874913182114914</v>
       </c>
       <c r="C33">
-        <v>0.02536044766929023</v>
+        <v>-0.0002260793295414398</v>
       </c>
       <c r="D33">
-        <v>-0.03946587550020532</v>
+        <v>0.03178093860334672</v>
       </c>
       <c r="E33">
-        <v>0.02436314345349153</v>
+        <v>0.02307211220556764</v>
       </c>
       <c r="F33">
-        <v>-0.08831900412886635</v>
+        <v>0.004787609649543707</v>
       </c>
       <c r="G33">
-        <v>-0.06637127120170194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04112620913791729</v>
+      </c>
+      <c r="H33">
+        <v>0.04507490565095088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02861820385339444</v>
+        <v>-0.02447113310809844</v>
       </c>
       <c r="C34">
-        <v>0.02376121073642024</v>
+        <v>-0.01562936715876645</v>
       </c>
       <c r="D34">
-        <v>-0.01050692846260602</v>
+        <v>0.03638105549335324</v>
       </c>
       <c r="E34">
-        <v>0.02845728757904387</v>
+        <v>-0.008676076474502028</v>
       </c>
       <c r="F34">
-        <v>-0.05744786029304565</v>
+        <v>0.02016619178251247</v>
       </c>
       <c r="G34">
-        <v>-0.01255865024781075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01453796623899721</v>
+      </c>
+      <c r="H34">
+        <v>0.03905764588733681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01424365068769264</v>
+        <v>-0.02023201684664142</v>
       </c>
       <c r="C36">
-        <v>-0.001436127858032629</v>
+        <v>0.004766305331215674</v>
       </c>
       <c r="D36">
-        <v>-0.002584535407224952</v>
+        <v>0.001498258585799513</v>
       </c>
       <c r="E36">
-        <v>0.02704534606586877</v>
+        <v>-0.007164216150961392</v>
       </c>
       <c r="F36">
-        <v>-0.0361796964407466</v>
+        <v>0.005432793482404058</v>
       </c>
       <c r="G36">
-        <v>-0.03658767597373621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01729595090541771</v>
+      </c>
+      <c r="H36">
+        <v>0.01323260140679796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0001980785272561884</v>
+        <v>-0.02576180467278108</v>
       </c>
       <c r="C38">
-        <v>-0.01568975841280498</v>
+        <v>-0.01626858268549073</v>
       </c>
       <c r="D38">
-        <v>-0.01117366550541638</v>
+        <v>0.006869030624741032</v>
       </c>
       <c r="E38">
-        <v>-0.02672356716472829</v>
+        <v>0.0007111312922856816</v>
       </c>
       <c r="F38">
-        <v>-0.03736276288687474</v>
+        <v>0.0105858836559169</v>
       </c>
       <c r="G38">
-        <v>-0.01177665238374202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01578765595345637</v>
+      </c>
+      <c r="H38">
+        <v>0.04118440292067128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03583501393549338</v>
+        <v>-0.01618857994585498</v>
       </c>
       <c r="C39">
-        <v>0.04500335427991695</v>
+        <v>0.0001564142706248342</v>
       </c>
       <c r="D39">
-        <v>-0.01636611819015679</v>
+        <v>0.07795603950808096</v>
       </c>
       <c r="E39">
-        <v>0.03190136565847043</v>
+        <v>0.003925282686030956</v>
       </c>
       <c r="F39">
-        <v>-0.06989039916162201</v>
+        <v>0.02396194021612749</v>
       </c>
       <c r="G39">
-        <v>-0.02638348793097036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03305234718191011</v>
+      </c>
+      <c r="H39">
+        <v>0.07583345847095664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03159278902889297</v>
+        <v>-0.02973693609879604</v>
       </c>
       <c r="C40">
-        <v>0.06870318254111665</v>
+        <v>0.00031162905208574</v>
       </c>
       <c r="D40">
-        <v>0.002926274215128818</v>
+        <v>0.02133885634846592</v>
       </c>
       <c r="E40">
-        <v>-0.008796041935193448</v>
+        <v>0.02421394628390987</v>
       </c>
       <c r="F40">
-        <v>-0.07691785611064117</v>
+        <v>0.03231660450756043</v>
       </c>
       <c r="G40">
-        <v>-0.05321201473116918</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01693218694655022</v>
+      </c>
+      <c r="H40">
+        <v>0.06743752650943523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001260070189413488</v>
+        <v>-0.01165609926215795</v>
       </c>
       <c r="C41">
-        <v>-0.003047635227346635</v>
+        <v>0.0007119827609486701</v>
       </c>
       <c r="D41">
-        <v>-0.009298543101094405</v>
+        <v>-0.01292163650585405</v>
       </c>
       <c r="E41">
-        <v>0.005722004492383055</v>
+        <v>0.001556674586820827</v>
       </c>
       <c r="F41">
-        <v>-0.01242091005197097</v>
+        <v>-0.002394971942196334</v>
       </c>
       <c r="G41">
-        <v>-0.05662871108733264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00580389449612218</v>
+      </c>
+      <c r="H41">
+        <v>-0.005811659694842182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3901130496851948</v>
+        <v>-0.1874289636385881</v>
       </c>
       <c r="C42">
-        <v>-0.3573025454461826</v>
+        <v>0.07520550149840373</v>
       </c>
       <c r="D42">
-        <v>-0.6944978035956402</v>
+        <v>0.3309098261731425</v>
       </c>
       <c r="E42">
-        <v>-0.3268824796015435</v>
+        <v>0.1577627350384781</v>
       </c>
       <c r="F42">
-        <v>0.2594669271445501</v>
+        <v>-0.8886994039272355</v>
       </c>
       <c r="G42">
-        <v>-0.1511614701973134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1213235288920334</v>
+      </c>
+      <c r="H42">
+        <v>-0.04304543745187107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003322119628490753</v>
+        <v>-0.01420450789140665</v>
       </c>
       <c r="C43">
-        <v>-0.006368549933974794</v>
+        <v>0.001034454221424684</v>
       </c>
       <c r="D43">
-        <v>-0.01513199642163132</v>
+        <v>-0.01365791427987125</v>
       </c>
       <c r="E43">
-        <v>0.005432120549288734</v>
+        <v>0.004246022418397916</v>
       </c>
       <c r="F43">
-        <v>-0.02726470442588689</v>
+        <v>-0.007158856801296556</v>
       </c>
       <c r="G43">
-        <v>-0.05441317885071157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005503324115006845</v>
+      </c>
+      <c r="H43">
+        <v>0.006310260898088625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01316752041224388</v>
+        <v>-0.01575464290541711</v>
       </c>
       <c r="C44">
-        <v>-0.01023478396996814</v>
+        <v>-0.00143383015205757</v>
       </c>
       <c r="D44">
-        <v>-0.01423080252585539</v>
+        <v>0.02346414257100159</v>
       </c>
       <c r="E44">
-        <v>0.01040520610618786</v>
+        <v>-0.006061030008069359</v>
       </c>
       <c r="F44">
-        <v>-0.1094372159990536</v>
+        <v>-1.663194353376437e-05</v>
       </c>
       <c r="G44">
-        <v>-0.09521022196785037</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0333154183892816</v>
+      </c>
+      <c r="H44">
+        <v>0.06402548045796556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01940833254605296</v>
+        <v>-0.01684545643308747</v>
       </c>
       <c r="C46">
-        <v>0.01254858922573947</v>
+        <v>0.005042383718772993</v>
       </c>
       <c r="D46">
-        <v>-0.02269112942143381</v>
+        <v>0.01105486742538634</v>
       </c>
       <c r="E46">
-        <v>0.038837858934201</v>
+        <v>-0.0005570874748098565</v>
       </c>
       <c r="F46">
-        <v>-0.06603215800459537</v>
+        <v>0.01488337497686595</v>
       </c>
       <c r="G46">
-        <v>-0.07153956116748322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04411383429525807</v>
+      </c>
+      <c r="H46">
+        <v>0.01450400101479217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09458345038354547</v>
+        <v>-0.07345867018488869</v>
       </c>
       <c r="C47">
-        <v>0.0334493671355151</v>
+        <v>-0.02718894369154484</v>
       </c>
       <c r="D47">
-        <v>0.003778476834129965</v>
+        <v>0.04668540732773704</v>
       </c>
       <c r="E47">
-        <v>0.02494340701473214</v>
+        <v>0.000345749701434866</v>
       </c>
       <c r="F47">
-        <v>-0.02811678038168824</v>
+        <v>0.02156421968986535</v>
       </c>
       <c r="G47">
-        <v>-0.09176491136921484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01087992637549359</v>
+      </c>
+      <c r="H47">
+        <v>-0.02120708604513214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01535743955546403</v>
+        <v>-0.02178356900781635</v>
       </c>
       <c r="C48">
-        <v>0.006017596931997535</v>
+        <v>-0.005621004230874706</v>
       </c>
       <c r="D48">
-        <v>-0.0157045944558419</v>
+        <v>0.006711307627301569</v>
       </c>
       <c r="E48">
-        <v>0.01670022390965592</v>
+        <v>-0.0005512405956530716</v>
       </c>
       <c r="F48">
-        <v>-0.05293079218160456</v>
+        <v>0.008339523757543784</v>
       </c>
       <c r="G48">
-        <v>-0.0294943406428502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02320371661019136</v>
+      </c>
+      <c r="H48">
+        <v>0.02098368047507787</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08323743700695917</v>
+        <v>-0.07077551099109614</v>
       </c>
       <c r="C50">
-        <v>0.04133807167817651</v>
+        <v>-0.02417227138498458</v>
       </c>
       <c r="D50">
-        <v>-0.01887956669724165</v>
+        <v>0.04683825335150404</v>
       </c>
       <c r="E50">
-        <v>0.02765134782256233</v>
+        <v>-0.01316589134420751</v>
       </c>
       <c r="F50">
-        <v>-0.05225657217145275</v>
+        <v>0.01845959098372761</v>
       </c>
       <c r="G50">
-        <v>-0.050255913003311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01069222909360717</v>
+      </c>
+      <c r="H50">
+        <v>0.0001860154587622125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01701955061414866</v>
+        <v>-0.01822161905467697</v>
       </c>
       <c r="C51">
-        <v>-0.02330388274805813</v>
+        <v>0.002223587090462313</v>
       </c>
       <c r="D51">
-        <v>-0.004373638451648365</v>
+        <v>-0.007566597781700601</v>
       </c>
       <c r="E51">
-        <v>-0.009052327066362798</v>
+        <v>-0.007107925779204663</v>
       </c>
       <c r="F51">
-        <v>-0.1143944652610176</v>
+        <v>-0.008916367629931036</v>
       </c>
       <c r="G51">
-        <v>-0.05567741126291589</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.043677413698352</v>
+      </c>
+      <c r="H51">
+        <v>0.05782664726195586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09727726698658699</v>
+        <v>-0.08934781152492303</v>
       </c>
       <c r="C53">
-        <v>0.05572924157114313</v>
+        <v>-0.03298929377222628</v>
       </c>
       <c r="D53">
-        <v>-0.005687580545503815</v>
+        <v>0.0829086789313747</v>
       </c>
       <c r="E53">
-        <v>0.04133332347809238</v>
+        <v>-0.00218649306761662</v>
       </c>
       <c r="F53">
-        <v>0.04216317037179757</v>
+        <v>0.04435821726388359</v>
       </c>
       <c r="G53">
-        <v>-0.02896083201621703</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0467768617319383</v>
+      </c>
+      <c r="H53">
+        <v>-0.04551708644636463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01996607711819701</v>
+        <v>-0.0251614127985697</v>
       </c>
       <c r="C54">
-        <v>0.002663779075927831</v>
+        <v>-0.01012083199004782</v>
       </c>
       <c r="D54">
-        <v>0.01243015918514011</v>
+        <v>-0.01357730723964215</v>
       </c>
       <c r="E54">
-        <v>0.03794486332361004</v>
+        <v>-0.007847960372223631</v>
       </c>
       <c r="F54">
-        <v>-0.0499988464805559</v>
+        <v>0.008066427919746424</v>
       </c>
       <c r="G54">
-        <v>-0.07652593455313482</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03700118763870763</v>
+      </c>
+      <c r="H54">
+        <v>-0.002279144157569106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1047511454191396</v>
+        <v>-0.07483446340933032</v>
       </c>
       <c r="C55">
-        <v>0.02731956684336758</v>
+        <v>-0.02884632558262158</v>
       </c>
       <c r="D55">
-        <v>0.008353524432119086</v>
+        <v>0.07943965082177679</v>
       </c>
       <c r="E55">
-        <v>0.06851953352352239</v>
+        <v>-0.01021663534915305</v>
       </c>
       <c r="F55">
-        <v>0.03058017856848396</v>
+        <v>0.03797001216290979</v>
       </c>
       <c r="G55">
-        <v>-0.06920755055352192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01999231085710031</v>
+      </c>
+      <c r="H55">
+        <v>-0.05267016854714307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.139586000939077</v>
+        <v>-0.1232294031867778</v>
       </c>
       <c r="C56">
-        <v>0.08011218646391234</v>
+        <v>-0.05102074803450144</v>
       </c>
       <c r="D56">
-        <v>0.02679008759721075</v>
+        <v>0.1067551955288127</v>
       </c>
       <c r="E56">
-        <v>0.06592499371250307</v>
+        <v>-0.00242290785888061</v>
       </c>
       <c r="F56">
-        <v>0.08547702135496449</v>
+        <v>0.06948169927752562</v>
       </c>
       <c r="G56">
-        <v>0.03526500726031091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07736247027119614</v>
+      </c>
+      <c r="H56">
+        <v>-0.05857013085202048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04597504515114062</v>
+        <v>-0.03757650160121476</v>
       </c>
       <c r="C57">
-        <v>0.009265511525166895</v>
+        <v>0.01188602385592937</v>
       </c>
       <c r="D57">
-        <v>-0.01217499060908666</v>
+        <v>0.03201525308833186</v>
       </c>
       <c r="E57">
-        <v>-0.02109317339086622</v>
+        <v>0.008103416395172435</v>
       </c>
       <c r="F57">
-        <v>-0.07081075928485414</v>
+        <v>0.01809632551390937</v>
       </c>
       <c r="G57">
-        <v>-0.06674056081882072</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05206675372772309</v>
+      </c>
+      <c r="H57">
+        <v>0.04362047407883102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2104326834647492</v>
+        <v>-0.1458257722828724</v>
       </c>
       <c r="C58">
-        <v>0.1049345796472212</v>
+        <v>-0.04055612802665093</v>
       </c>
       <c r="D58">
-        <v>-0.07557806680142194</v>
+        <v>0.1550014313456952</v>
       </c>
       <c r="E58">
-        <v>0.1168626957851346</v>
+        <v>0.1746015045615997</v>
       </c>
       <c r="F58">
-        <v>-0.4041238322949325</v>
+        <v>0.004095826798217539</v>
       </c>
       <c r="G58">
-        <v>-0.1034438409593525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8613087353398449</v>
+      </c>
+      <c r="H58">
+        <v>-0.3153232070495758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04995572956477667</v>
+        <v>-0.1687908622809484</v>
       </c>
       <c r="C59">
-        <v>-0.04305641708208427</v>
+        <v>-0.03546520836162559</v>
       </c>
       <c r="D59">
-        <v>0.1205111613842442</v>
+        <v>-0.2179842598659296</v>
       </c>
       <c r="E59">
-        <v>-0.1330095117228227</v>
+        <v>0.01858756435835203</v>
       </c>
       <c r="F59">
-        <v>-0.06506654788387199</v>
+        <v>-0.02410588196160117</v>
       </c>
       <c r="G59">
-        <v>0.01039408807392455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01562689184301274</v>
+      </c>
+      <c r="H59">
+        <v>0.02637271501517128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.15861420362397</v>
+        <v>-0.1783503919289072</v>
       </c>
       <c r="C60">
-        <v>0.06633498005413292</v>
+        <v>-0.03247696082102799</v>
       </c>
       <c r="D60">
-        <v>-0.03460001310952331</v>
+        <v>0.02496922381904216</v>
       </c>
       <c r="E60">
-        <v>-0.08709557302724133</v>
+        <v>0.05077949294596764</v>
       </c>
       <c r="F60">
-        <v>-0.1578113057689503</v>
+        <v>0.03988696533231498</v>
       </c>
       <c r="G60">
-        <v>0.3197044098875418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01512183334506685</v>
+      </c>
+      <c r="H60">
+        <v>0.3868142999756888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01949949958535429</v>
+        <v>-0.02095515119310759</v>
       </c>
       <c r="C61">
-        <v>0.01406362436676213</v>
+        <v>-0.005623237702655567</v>
       </c>
       <c r="D61">
-        <v>-0.01408380301137097</v>
+        <v>0.04400140876629948</v>
       </c>
       <c r="E61">
-        <v>0.01621636468762429</v>
+        <v>-0.0031507744725394</v>
       </c>
       <c r="F61">
-        <v>-0.03803131614357287</v>
+        <v>0.02165775896203748</v>
       </c>
       <c r="G61">
-        <v>-0.01589266589221785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01703294269039805</v>
+      </c>
+      <c r="H61">
+        <v>0.05536920194486867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01628754788212219</v>
+        <v>-0.01254331712102535</v>
       </c>
       <c r="C63">
-        <v>0.005728494534278117</v>
+        <v>0.002976174524403052</v>
       </c>
       <c r="D63">
-        <v>-0.02061274745098542</v>
+        <v>0.01802580079549991</v>
       </c>
       <c r="E63">
-        <v>0.03098451424757156</v>
+        <v>-0.004737847866596285</v>
       </c>
       <c r="F63">
-        <v>-0.02168355095780593</v>
+        <v>0.01379021018395253</v>
       </c>
       <c r="G63">
-        <v>-0.06811461108712001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01599626656599709</v>
+      </c>
+      <c r="H63">
+        <v>0.009433021542705136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03177792312929956</v>
+        <v>-0.03862558046300629</v>
       </c>
       <c r="C64">
-        <v>0.002054793723618651</v>
+        <v>-0.008016938960481348</v>
       </c>
       <c r="D64">
-        <v>-0.0003850293320772565</v>
+        <v>0.03739580104630161</v>
       </c>
       <c r="E64">
-        <v>0.06169394555447683</v>
+        <v>-0.0121865568299724</v>
       </c>
       <c r="F64">
-        <v>-0.02636811137784326</v>
+        <v>0.007300954157274693</v>
       </c>
       <c r="G64">
-        <v>-0.05137776742611701</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.001294548784236609</v>
+      </c>
+      <c r="H64">
+        <v>0.0376972323540723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02272922283579675</v>
+        <v>-0.02989167299246618</v>
       </c>
       <c r="C65">
-        <v>0.01322816749651461</v>
+        <v>0.005348046345973359</v>
       </c>
       <c r="D65">
-        <v>-0.009527192690005232</v>
+        <v>0.06010031474663365</v>
       </c>
       <c r="E65">
-        <v>0.01940175760234044</v>
+        <v>-0.008199942840809693</v>
       </c>
       <c r="F65">
-        <v>-0.02216604957750726</v>
+        <v>0.03621931904991597</v>
       </c>
       <c r="G65">
-        <v>0.007122290928962966</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004470408984687743</v>
+      </c>
+      <c r="H65">
+        <v>0.07013518274746212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03333330649708169</v>
+        <v>-0.02173569468792754</v>
       </c>
       <c r="C66">
-        <v>0.051013011593382</v>
+        <v>-0.00416163822425614</v>
       </c>
       <c r="D66">
-        <v>-0.02089360541482498</v>
+        <v>0.09260253053812302</v>
       </c>
       <c r="E66">
-        <v>0.03107507279880187</v>
+        <v>0.00651819920717928</v>
       </c>
       <c r="F66">
-        <v>-0.05671774920571349</v>
+        <v>0.0417707593106001</v>
       </c>
       <c r="G66">
-        <v>-0.01346690353362368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02448467104279141</v>
+      </c>
+      <c r="H66">
+        <v>0.07796481975046893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0102989188779266</v>
+        <v>-0.04506184370629247</v>
       </c>
       <c r="C67">
-        <v>-0.0034840381863862</v>
+        <v>-0.0189134989130915</v>
       </c>
       <c r="D67">
-        <v>-0.00661313356033376</v>
+        <v>0.005752696535023779</v>
       </c>
       <c r="E67">
-        <v>-0.04091575670715238</v>
+        <v>0.00537015460414647</v>
       </c>
       <c r="F67">
-        <v>-0.02162568616936341</v>
+        <v>0.01835678633796813</v>
       </c>
       <c r="G67">
-        <v>0.002585945721351376</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0003579587696327252</v>
+      </c>
+      <c r="H67">
+        <v>0.03795781762935863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06890234306021614</v>
+        <v>-0.1635326031015284</v>
       </c>
       <c r="C68">
-        <v>-0.07118769196034039</v>
+        <v>-0.0139059835395922</v>
       </c>
       <c r="D68">
-        <v>0.1469710721563559</v>
+        <v>-0.2205766494787451</v>
       </c>
       <c r="E68">
-        <v>-0.1251723704510438</v>
+        <v>0.01131877195015598</v>
       </c>
       <c r="F68">
-        <v>-0.06087303269244055</v>
+        <v>-0.04991038975490706</v>
       </c>
       <c r="G68">
-        <v>0.05037781315611124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03030102640996776</v>
+      </c>
+      <c r="H68">
+        <v>-0.0405841698721336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06952743652354385</v>
+        <v>-0.05916581584309905</v>
       </c>
       <c r="C69">
-        <v>0.0389779256524156</v>
+        <v>-0.02689852059271843</v>
       </c>
       <c r="D69">
-        <v>0.01080602583469485</v>
+        <v>0.04257387418559386</v>
       </c>
       <c r="E69">
-        <v>0.008669368350367685</v>
+        <v>0.002079278651489721</v>
       </c>
       <c r="F69">
-        <v>-0.02147790470531276</v>
+        <v>0.03154231901302982</v>
       </c>
       <c r="G69">
-        <v>-0.0837937422724377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01781582205160752</v>
+      </c>
+      <c r="H69">
+        <v>0.005793379290173739</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07517058833830488</v>
+        <v>-0.1537797452673745</v>
       </c>
       <c r="C71">
-        <v>-0.0794970284727084</v>
+        <v>-0.02177198674108607</v>
       </c>
       <c r="D71">
-        <v>0.1322350688110145</v>
+        <v>-0.1925479791237723</v>
       </c>
       <c r="E71">
-        <v>-0.188659345356414</v>
+        <v>0.01778592611231783</v>
       </c>
       <c r="F71">
-        <v>-0.05875451465485362</v>
+        <v>-0.057469998216721</v>
       </c>
       <c r="G71">
-        <v>-0.01465311073821718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02575214744820744</v>
+      </c>
+      <c r="H71">
+        <v>-0.0241519433530431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1129326084919702</v>
+        <v>-0.07887103022849093</v>
       </c>
       <c r="C72">
-        <v>0.07317317191685567</v>
+        <v>-0.03553259816995986</v>
       </c>
       <c r="D72">
-        <v>0.03440844004375783</v>
+        <v>0.08196389117922202</v>
       </c>
       <c r="E72">
-        <v>0.02586174501550265</v>
+        <v>0.01475529428799762</v>
       </c>
       <c r="F72">
-        <v>-0.1370756589305019</v>
+        <v>0.07962427692110439</v>
       </c>
       <c r="G72">
-        <v>0.09280333349011828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0401807478011232</v>
+      </c>
+      <c r="H72">
+        <v>0.1666645127895904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2352421172755599</v>
+        <v>-0.2372726884470063</v>
       </c>
       <c r="C73">
-        <v>0.08309327673077711</v>
+        <v>-0.04011199703620971</v>
       </c>
       <c r="D73">
-        <v>-0.03306017203642985</v>
+        <v>0.08078191980311716</v>
       </c>
       <c r="E73">
-        <v>-0.1961414442728873</v>
+        <v>0.08684587103669916</v>
       </c>
       <c r="F73">
-        <v>-0.2511487737584816</v>
+        <v>0.03798690678759924</v>
       </c>
       <c r="G73">
-        <v>0.4516760086931632</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.02126275197776139</v>
+      </c>
+      <c r="H73">
+        <v>0.5078764443064547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1407133640584552</v>
+        <v>-0.1167757739582417</v>
       </c>
       <c r="C74">
-        <v>0.03062625709440263</v>
+        <v>-0.0481900663654406</v>
       </c>
       <c r="D74">
-        <v>0.01570207170168308</v>
+        <v>0.1106448758323026</v>
       </c>
       <c r="E74">
-        <v>0.03617917401454084</v>
+        <v>-0.003685813039547876</v>
       </c>
       <c r="F74">
-        <v>0.06154729997355147</v>
+        <v>0.05321247338646884</v>
       </c>
       <c r="G74">
-        <v>0.0162648142395046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06158985450003585</v>
+      </c>
+      <c r="H74">
+        <v>-0.03317651028836114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2305181279951469</v>
+        <v>-0.2231688696986825</v>
       </c>
       <c r="C75">
-        <v>0.1276529976395482</v>
+        <v>-0.09405778696512009</v>
       </c>
       <c r="D75">
-        <v>0.06334547576114472</v>
+        <v>0.1774964464571377</v>
       </c>
       <c r="E75">
-        <v>0.09696871663683851</v>
+        <v>0.01414255040770581</v>
       </c>
       <c r="F75">
-        <v>0.1044287050908137</v>
+        <v>0.1305448016554939</v>
       </c>
       <c r="G75">
-        <v>0.004759478816953056</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1254113689365128</v>
+      </c>
+      <c r="H75">
+        <v>-0.1349357450163208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2742456750842007</v>
+        <v>-0.1962734792029164</v>
       </c>
       <c r="C76">
-        <v>0.1057635490408685</v>
+        <v>-0.08690618822590637</v>
       </c>
       <c r="D76">
-        <v>0.1090204463292738</v>
+        <v>0.1670420666640462</v>
       </c>
       <c r="E76">
-        <v>0.1418082405824157</v>
+        <v>-0.03483145559713805</v>
       </c>
       <c r="F76">
-        <v>0.1545248004590896</v>
+        <v>0.1251994617646344</v>
       </c>
       <c r="G76">
-        <v>0.01437386504929366</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1247971111803124</v>
+      </c>
+      <c r="H76">
+        <v>-0.1344233941555961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1254058728390254</v>
+        <v>-0.06917576484180352</v>
       </c>
       <c r="C77">
-        <v>0.02515784105799082</v>
+        <v>-0.007952187803588192</v>
       </c>
       <c r="D77">
-        <v>-0.1004295288699729</v>
+        <v>0.06358112029417055</v>
       </c>
       <c r="E77">
-        <v>0.05482098633201315</v>
+        <v>0.008338027471551714</v>
       </c>
       <c r="F77">
-        <v>-0.1759682878459511</v>
+        <v>-0.01066728472191717</v>
       </c>
       <c r="G77">
-        <v>-0.1982180088044971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08647108494867972</v>
+      </c>
+      <c r="H77">
+        <v>0.01176438757303573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0744851865189558</v>
+        <v>-0.04071857607157609</v>
       </c>
       <c r="C78">
-        <v>0.03798951261193059</v>
+        <v>-0.009515832151167471</v>
       </c>
       <c r="D78">
-        <v>-0.04643258478252676</v>
+        <v>0.05447639532606077</v>
       </c>
       <c r="E78">
-        <v>0.07555456283028887</v>
+        <v>-0.003638064637110736</v>
       </c>
       <c r="F78">
-        <v>-0.106544206387846</v>
+        <v>0.02762864032251731</v>
       </c>
       <c r="G78">
-        <v>-0.03273045255735824</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05394859901109067</v>
+      </c>
+      <c r="H78">
+        <v>0.07946891348076128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1587395408745279</v>
+        <v>-0.1351114455433467</v>
       </c>
       <c r="C80">
-        <v>-0.7745173918830607</v>
+        <v>-0.03092715494152903</v>
       </c>
       <c r="D80">
-        <v>0.1533806132038072</v>
+        <v>0.06091857723947289</v>
       </c>
       <c r="E80">
-        <v>0.5357334850651876</v>
+        <v>-0.9545868517469396</v>
       </c>
       <c r="F80">
-        <v>-0.07266117744999032</v>
+        <v>-0.1499536525524385</v>
       </c>
       <c r="G80">
-        <v>0.1754719299511792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1419399420985864</v>
+      </c>
+      <c r="H80">
+        <v>0.01853151606771861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1707021374142915</v>
+        <v>-0.1455877497867214</v>
       </c>
       <c r="C81">
-        <v>0.09281717363002027</v>
+        <v>-0.06026306917174248</v>
       </c>
       <c r="D81">
-        <v>0.07218175356960772</v>
+        <v>0.1065724520752788</v>
       </c>
       <c r="E81">
-        <v>0.07963657830080433</v>
+        <v>-0.007503399970359426</v>
       </c>
       <c r="F81">
-        <v>0.1200534773937343</v>
+        <v>0.08150748258429627</v>
       </c>
       <c r="G81">
-        <v>0.02768434815434386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08292749275668745</v>
+      </c>
+      <c r="H81">
+        <v>-0.09405561337861441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04063375176997217</v>
+        <v>-0.03330924281172886</v>
       </c>
       <c r="C83">
-        <v>0.02112666840194763</v>
+        <v>-0.005510280278626297</v>
       </c>
       <c r="D83">
-        <v>-0.03212941926377284</v>
+        <v>0.02175565436959578</v>
       </c>
       <c r="E83">
-        <v>0.008904781888675987</v>
+        <v>0.006073660358007114</v>
       </c>
       <c r="F83">
-        <v>-0.03970573097049129</v>
+        <v>0.01065379955548467</v>
       </c>
       <c r="G83">
-        <v>-0.0430570499443884</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03429694878976683</v>
+      </c>
+      <c r="H83">
+        <v>0.04407592802450319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2523211263892925</v>
+        <v>-0.2133224725675711</v>
       </c>
       <c r="C85">
-        <v>0.1067108069959257</v>
+        <v>-0.07809436884208577</v>
       </c>
       <c r="D85">
-        <v>0.07580449783560134</v>
+        <v>0.1777769428634796</v>
       </c>
       <c r="E85">
-        <v>0.1049698114963713</v>
+        <v>0.006911551973259541</v>
       </c>
       <c r="F85">
-        <v>0.0977800456649591</v>
+        <v>0.1151353912718244</v>
       </c>
       <c r="G85">
-        <v>-0.0319297311022924</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1414489348863114</v>
+      </c>
+      <c r="H85">
+        <v>-0.09950978694294206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006164759576032498</v>
+        <v>-0.01942896507856582</v>
       </c>
       <c r="C86">
-        <v>-0.002458308910007233</v>
+        <v>0.001461678693551154</v>
       </c>
       <c r="D86">
-        <v>-0.03412697306989038</v>
+        <v>0.007675993214288258</v>
       </c>
       <c r="E86">
-        <v>0.04279527808450276</v>
+        <v>0.00712183768044764</v>
       </c>
       <c r="F86">
-        <v>-0.07121732530001346</v>
+        <v>-0.01526417302760161</v>
       </c>
       <c r="G86">
-        <v>-0.02720002599773926</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0576866067930185</v>
+      </c>
+      <c r="H86">
+        <v>0.08258302612574875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04105117565965712</v>
+        <v>-0.02490949818428742</v>
       </c>
       <c r="C87">
-        <v>-0.01069961728940818</v>
+        <v>-0.0003919572888069065</v>
       </c>
       <c r="D87">
-        <v>-0.01434504505488</v>
+        <v>0.03513155808931194</v>
       </c>
       <c r="E87">
-        <v>0.02399610178727278</v>
+        <v>-0.007266843059020208</v>
       </c>
       <c r="F87">
-        <v>-0.1192832407901191</v>
+        <v>0.01022175831346419</v>
       </c>
       <c r="G87">
-        <v>-0.03610300027693381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07239034472618731</v>
+      </c>
+      <c r="H87">
+        <v>0.08181526809734985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.005337110315455043</v>
+        <v>-0.03367815854551669</v>
       </c>
       <c r="C88">
-        <v>-0.00107377775146038</v>
+        <v>0.01297409708822412</v>
       </c>
       <c r="D88">
-        <v>0.01088025976047675</v>
+        <v>0.005925309353821686</v>
       </c>
       <c r="E88">
-        <v>0.008155297930311929</v>
+        <v>-0.008493365068090444</v>
       </c>
       <c r="F88">
-        <v>0.004905009322848398</v>
+        <v>0.008689476771361318</v>
       </c>
       <c r="G88">
-        <v>-0.0487768629797256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.008045755784810234</v>
+      </c>
+      <c r="H88">
+        <v>0.01355137657967268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09386652724016617</v>
+        <v>-0.2621233438891235</v>
       </c>
       <c r="C89">
-        <v>-0.09856999560209134</v>
+        <v>-0.03465837705709252</v>
       </c>
       <c r="D89">
-        <v>0.1891549308417085</v>
+        <v>-0.343849749138142</v>
       </c>
       <c r="E89">
-        <v>-0.237931837885182</v>
+        <v>0.02758786344894925</v>
       </c>
       <c r="F89">
-        <v>-0.09822172456779518</v>
+        <v>-0.05480458529359097</v>
       </c>
       <c r="G89">
-        <v>-0.03511962128646518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02160335291072752</v>
+      </c>
+      <c r="H89">
+        <v>-0.01060324941226615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08665874823193752</v>
+        <v>-0.213413418597234</v>
       </c>
       <c r="C90">
-        <v>-0.1510395819213959</v>
+        <v>-0.02895375439048485</v>
       </c>
       <c r="D90">
-        <v>0.231800931382088</v>
+        <v>-0.3071887846071663</v>
       </c>
       <c r="E90">
-        <v>-0.2281883071333431</v>
+        <v>0.01896061555664534</v>
       </c>
       <c r="F90">
-        <v>-0.05467739108642668</v>
+        <v>-0.07654200814933951</v>
       </c>
       <c r="G90">
-        <v>-0.04185192304490451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02395050043913943</v>
+      </c>
+      <c r="H90">
+        <v>-0.06816745854884586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3112645933056753</v>
+        <v>-0.2274193459924004</v>
       </c>
       <c r="C91">
-        <v>0.1412437445614635</v>
+        <v>-0.0934968698667296</v>
       </c>
       <c r="D91">
-        <v>0.06753492801787449</v>
+        <v>0.1669268503492233</v>
       </c>
       <c r="E91">
-        <v>0.0920792364316568</v>
+        <v>0.01168917473070626</v>
       </c>
       <c r="F91">
-        <v>0.2178463031380064</v>
+        <v>0.1174253423360374</v>
       </c>
       <c r="G91">
-        <v>0.02533172113670216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1493354873220245</v>
+      </c>
+      <c r="H91">
+        <v>-0.1776474005314499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1735132989565836</v>
+        <v>-0.2611035257132855</v>
       </c>
       <c r="C92">
-        <v>-0.1021067814060761</v>
+        <v>-0.0920739080730328</v>
       </c>
       <c r="D92">
-        <v>0.3894582702763146</v>
+        <v>-0.22652521307669</v>
       </c>
       <c r="E92">
-        <v>-0.2146328599081168</v>
+        <v>0.007899698085267592</v>
       </c>
       <c r="F92">
-        <v>0.1162938633104282</v>
+        <v>0.002418068528411638</v>
       </c>
       <c r="G92">
-        <v>-0.4644186813250076</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.006720397242798915</v>
+      </c>
+      <c r="H92">
+        <v>-0.1476472300628995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09615496634074719</v>
+        <v>-0.2388007067487899</v>
       </c>
       <c r="C93">
-        <v>-0.1574350937256869</v>
+        <v>-0.04098996724705548</v>
       </c>
       <c r="D93">
-        <v>0.2808990565609936</v>
+        <v>-0.3215836348586002</v>
       </c>
       <c r="E93">
-        <v>-0.3373692489198131</v>
+        <v>0.04109066216481359</v>
       </c>
       <c r="F93">
-        <v>-0.01006242961954038</v>
+        <v>-0.08048520636118528</v>
       </c>
       <c r="G93">
-        <v>0.05146852461402996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02183851475661781</v>
+      </c>
+      <c r="H93">
+        <v>-0.008401085492980185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3035045413346401</v>
+        <v>-0.2520149126840948</v>
       </c>
       <c r="C94">
-        <v>0.1885760276281123</v>
+        <v>-0.08381668004679584</v>
       </c>
       <c r="D94">
-        <v>0.1465889912961443</v>
+        <v>0.1647357742693768</v>
       </c>
       <c r="E94">
-        <v>0.129933428284712</v>
+        <v>0.02798847913578667</v>
       </c>
       <c r="F94">
-        <v>0.2050497979262276</v>
+        <v>0.1662401063078607</v>
       </c>
       <c r="G94">
-        <v>0.05661349145809773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.136354571640433</v>
+      </c>
+      <c r="H94">
+        <v>-0.212635251284314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06607328359368711</v>
+        <v>-0.05155602619980867</v>
       </c>
       <c r="C95">
-        <v>0.0513833658893665</v>
+        <v>-0.02733985141423399</v>
       </c>
       <c r="D95">
-        <v>-0.07034903501297596</v>
+        <v>0.08552059134922521</v>
       </c>
       <c r="E95">
-        <v>0.04565575085136162</v>
+        <v>0.07794795185945462</v>
       </c>
       <c r="F95">
-        <v>-0.006595703129598401</v>
+        <v>0.001815431974675453</v>
       </c>
       <c r="G95">
-        <v>-0.1598623673390534</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02770550473483952</v>
+      </c>
+      <c r="H95">
+        <v>0.04851920133881384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1765838138694599</v>
+        <v>-0.1829490565597635</v>
       </c>
       <c r="C98">
-        <v>0.02229837945072451</v>
+        <v>-0.06333178289104127</v>
       </c>
       <c r="D98">
-        <v>-0.03780839041186465</v>
+        <v>0.05113505662377205</v>
       </c>
       <c r="E98">
-        <v>-0.1224389232754212</v>
+        <v>0.04847619994549385</v>
       </c>
       <c r="F98">
-        <v>-0.1279757829743312</v>
+        <v>0.009244505735372315</v>
       </c>
       <c r="G98">
-        <v>0.3680221900669769</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05914377830670481</v>
+      </c>
+      <c r="H98">
+        <v>0.3715950489397813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005440228167275738</v>
+        <v>-0.01464642583271587</v>
       </c>
       <c r="C101">
-        <v>0.01347304121884921</v>
+        <v>0.001375977232278942</v>
       </c>
       <c r="D101">
-        <v>-0.01495644156539076</v>
+        <v>0.006679070399948972</v>
       </c>
       <c r="E101">
-        <v>0.09176487733496734</v>
+        <v>-0.005761456158413191</v>
       </c>
       <c r="F101">
-        <v>-0.1670034466321281</v>
+        <v>0.02327128743090729</v>
       </c>
       <c r="G101">
-        <v>-0.1709145317030972</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1054804869726306</v>
+      </c>
+      <c r="H101">
+        <v>-0.0157813777056348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1116216103093404</v>
+        <v>-0.1030699685845817</v>
       </c>
       <c r="C102">
-        <v>0.06088827287878459</v>
+        <v>-0.03024470298227309</v>
       </c>
       <c r="D102">
-        <v>0.01423527629768869</v>
+        <v>0.08672853793623521</v>
       </c>
       <c r="E102">
-        <v>0.06594397706766436</v>
+        <v>0.0003368230415460542</v>
       </c>
       <c r="F102">
-        <v>0.0999611484749163</v>
+        <v>0.05965423528995523</v>
       </c>
       <c r="G102">
-        <v>-0.003415018750481324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07853166752094852</v>
+      </c>
+      <c r="H102">
+        <v>-0.07137127985794418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02342177618057488</v>
+        <v>-0.01747732064008245</v>
       </c>
       <c r="C103">
-        <v>0.02084337913126828</v>
+        <v>-0.005989651741318801</v>
       </c>
       <c r="D103">
-        <v>-0.003276103517743597</v>
+        <v>0.01774814042496961</v>
       </c>
       <c r="E103">
-        <v>0.02063201150760876</v>
+        <v>-0.01001679938660646</v>
       </c>
       <c r="F103">
-        <v>0.001630573410137248</v>
+        <v>0.01187227013686211</v>
       </c>
       <c r="G103">
-        <v>-0.01617285539882025</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0008059087029261234</v>
+      </c>
+      <c r="H103">
+        <v>-0.01014523555775273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2392121420858636</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9551297495761941</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0218462255790848</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01877977442779803</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1370845998595173</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01976445682810482</v>
+      </c>
+      <c r="H104">
+        <v>-0.04434075753304917</v>
       </c>
     </row>
   </sheetData>
